--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -873,7 +873,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2">

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -321,8 +321,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="false"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="false"/>
+        <i val="false"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="false" table="false" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
 </styleSheet>
 </file>
 
@@ -615,7 +643,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -860,7 +888,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -873,7 +901,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>138</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -901,7 +901,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -901,7 +901,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -901,7 +901,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -901,7 +901,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2">

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -901,7 +901,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2">

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -901,7 +901,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2">

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -901,7 +901,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2">

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -901,7 +901,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2">

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -901,7 +901,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -901,7 +901,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2">

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -643,7 +643,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -901,7 +901,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -901,7 +901,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -643,7 +643,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -901,7 +901,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -643,7 +643,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -901,7 +901,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -901,7 +901,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -901,7 +901,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -901,7 +901,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -901,7 +901,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -901,7 +901,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -901,7 +901,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -901,7 +901,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -901,7 +901,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2">

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -901,7 +901,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2">

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -901,7 +901,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2">

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -901,7 +901,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2">

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" fullCalcOnLoad="true"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -276,8 +276,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,8 +315,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -325,7 +325,7 @@
     <dxf>
       <font>
         <b/>
-        <i val="false"/>
+        <i val="0"/>
       </font>
       <fill>
         <patternFill>
@@ -335,8 +335,8 @@
     </dxf>
     <dxf>
       <font>
-        <b val="false"/>
-        <i val="false"/>
+        <b val="0"/>
+        <i val="0"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -346,11 +346,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="false" table="false" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -643,47 +648,47 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="true" customWidth="true"/>
-    <col min="2" max="2" width="12.5703125" bestFit="true" customWidth="true"/>
-    <col min="3" max="3" width="10.42578125" bestFit="true" customWidth="true"/>
-    <col min="4" max="4" width="12" bestFit="true" customWidth="true"/>
-    <col min="5" max="5" width="14.28515625" bestFit="true" customWidth="true"/>
-    <col min="6" max="6" width="10.7109375" bestFit="true" customWidth="true"/>
-    <col min="7" max="7" width="4.85546875" bestFit="true" customWidth="true"/>
-    <col min="8" max="8" width="15.28515625" bestFit="true" customWidth="true"/>
-    <col min="9" max="9" width="12.42578125" bestFit="true" customWidth="true"/>
-    <col min="10" max="10" width="16.140625" bestFit="true" customWidth="true"/>
-    <col min="11" max="11" width="28.42578125" bestFit="true" customWidth="true"/>
-    <col min="12" max="12" width="25.28515625" bestFit="true" customWidth="true"/>
-    <col min="13" max="13" width="14.85546875" bestFit="true" customWidth="true"/>
-    <col min="14" max="14" width="16" bestFit="true" customWidth="true"/>
-    <col min="15" max="15" width="17.28515625" bestFit="true" customWidth="true"/>
-    <col min="16" max="16" width="22.5703125" bestFit="true" customWidth="true"/>
-    <col min="17" max="17" width="16.85546875" bestFit="true" customWidth="true"/>
-    <col min="18" max="18" width="25.140625" bestFit="true" customWidth="true"/>
-    <col min="19" max="19" width="15.140625" bestFit="true" customWidth="true"/>
-    <col min="20" max="20" width="11.7109375" bestFit="true" customWidth="true"/>
-    <col min="21" max="21" width="13.42578125" bestFit="true" customWidth="true"/>
-    <col min="22" max="22" width="27" bestFit="true" customWidth="true"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -751,7 +756,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3013684370</v>
       </c>
@@ -819,7 +824,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="K3" t="s">
         <v>23</v>
       </c>
@@ -830,7 +835,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="K4" t="s">
         <v>24</v>
       </c>
@@ -841,7 +846,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="K5" t="s">
         <v>25</v>
       </c>
@@ -852,27 +857,27 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U10" t="s">
         <v>46</v>
       </c>
@@ -884,27 +889,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="true" customWidth="true"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>49</v>
       </c>
       <c r="B1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -918,22 +923,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="true" customWidth="true"/>
-    <col min="2" max="2" width="11.42578125" bestFit="true" customWidth="true"/>
-    <col min="3" max="3" width="16.5703125" bestFit="true" customWidth="true"/>
-    <col min="4" max="4" width="15.85546875" bestFit="true" customWidth="true"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -947,7 +952,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -961,7 +966,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -975,7 +980,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -989,7 +994,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -1003,7 +1008,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -1017,7 +1022,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -1031,7 +1036,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -1045,7 +1050,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -1059,7 +1064,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>79</v>
       </c>
@@ -1073,7 +1078,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>82</v>
       </c>

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
@@ -276,8 +276,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,8 +315,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -325,7 +325,7 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
+        <i val="false"/>
       </font>
       <fill>
         <patternFill>
@@ -335,8 +335,8 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
+        <b val="false"/>
+        <i val="false"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -346,16 +346,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="false" table="false" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -655,40 +650,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="12.5703125" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="10.42578125" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="12" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="14.28515625" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="10.7109375" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="4.85546875" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="15.28515625" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="12.42578125" bestFit="true" customWidth="true"/>
+    <col min="10" max="10" width="16.140625" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="28.42578125" bestFit="true" customWidth="true"/>
+    <col min="12" max="12" width="25.28515625" bestFit="true" customWidth="true"/>
+    <col min="13" max="13" width="14.85546875" bestFit="true" customWidth="true"/>
+    <col min="14" max="14" width="16" bestFit="true" customWidth="true"/>
+    <col min="15" max="15" width="17.28515625" bestFit="true" customWidth="true"/>
+    <col min="16" max="16" width="22.5703125" bestFit="true" customWidth="true"/>
+    <col min="17" max="17" width="16.85546875" bestFit="true" customWidth="true"/>
+    <col min="18" max="18" width="25.140625" bestFit="true" customWidth="true"/>
+    <col min="19" max="19" width="15.140625" bestFit="true" customWidth="true"/>
+    <col min="20" max="20" width="11.7109375" bestFit="true" customWidth="true"/>
+    <col min="21" max="21" width="13.42578125" bestFit="true" customWidth="true"/>
+    <col min="22" max="22" width="27" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -756,7 +751,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2">
         <v>3013684370</v>
       </c>
@@ -824,7 +819,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="K3" t="s">
         <v>23</v>
       </c>
@@ -835,7 +830,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="K4" t="s">
         <v>24</v>
       </c>
@@ -846,7 +841,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="K5" t="s">
         <v>25</v>
       </c>
@@ -857,27 +852,27 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="U6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="U7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="U8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="U9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="U10" t="s">
         <v>46</v>
       </c>
@@ -889,27 +884,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>49</v>
       </c>
       <c r="B1">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -923,22 +918,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="11.42578125" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="16.5703125" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="15.85546875" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -952,7 +947,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -966,7 +961,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -980,7 +975,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -994,7 +989,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -1008,7 +1003,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -1022,7 +1017,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -1036,7 +1031,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -1050,7 +1045,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -1064,7 +1059,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>79</v>
       </c>
@@ -1078,7 +1073,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>82</v>
       </c>

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -901,7 +901,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -901,7 +901,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2">

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -901,7 +901,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2">

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8115" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8115" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" fullCalcOnLoad="true"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
   <si>
     <t>Invoice No</t>
   </si>
@@ -181,9 +181,6 @@
   </si>
   <si>
     <t>DeliveryNumber</t>
-  </si>
-  <si>
-    <t>3013691711</t>
   </si>
   <si>
     <t>1000004200</t>
@@ -276,8 +273,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,8 +312,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -325,7 +322,7 @@
     <dxf>
       <font>
         <b/>
-        <i val="false"/>
+        <i val="0"/>
       </font>
       <fill>
         <patternFill>
@@ -335,8 +332,8 @@
     </dxf>
     <dxf>
       <font>
-        <b val="false"/>
-        <i val="false"/>
+        <b val="0"/>
+        <i val="0"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -346,11 +343,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="false" table="false" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -397,7 +399,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -449,7 +451,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -650,40 +652,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="true" customWidth="true"/>
-    <col min="2" max="2" width="12.5703125" bestFit="true" customWidth="true"/>
-    <col min="3" max="3" width="10.42578125" bestFit="true" customWidth="true"/>
-    <col min="4" max="4" width="12" bestFit="true" customWidth="true"/>
-    <col min="5" max="5" width="14.28515625" bestFit="true" customWidth="true"/>
-    <col min="6" max="6" width="10.7109375" bestFit="true" customWidth="true"/>
-    <col min="7" max="7" width="4.85546875" bestFit="true" customWidth="true"/>
-    <col min="8" max="8" width="15.28515625" bestFit="true" customWidth="true"/>
-    <col min="9" max="9" width="12.42578125" bestFit="true" customWidth="true"/>
-    <col min="10" max="10" width="16.140625" bestFit="true" customWidth="true"/>
-    <col min="11" max="11" width="28.42578125" bestFit="true" customWidth="true"/>
-    <col min="12" max="12" width="25.28515625" bestFit="true" customWidth="true"/>
-    <col min="13" max="13" width="14.85546875" bestFit="true" customWidth="true"/>
-    <col min="14" max="14" width="16" bestFit="true" customWidth="true"/>
-    <col min="15" max="15" width="17.28515625" bestFit="true" customWidth="true"/>
-    <col min="16" max="16" width="22.5703125" bestFit="true" customWidth="true"/>
-    <col min="17" max="17" width="16.85546875" bestFit="true" customWidth="true"/>
-    <col min="18" max="18" width="25.140625" bestFit="true" customWidth="true"/>
-    <col min="19" max="19" width="15.140625" bestFit="true" customWidth="true"/>
-    <col min="20" max="20" width="11.7109375" bestFit="true" customWidth="true"/>
-    <col min="21" max="21" width="13.42578125" bestFit="true" customWidth="true"/>
-    <col min="22" max="22" width="27" bestFit="true" customWidth="true"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -751,7 +753,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3013684370</v>
       </c>
@@ -819,7 +821,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="K3" t="s">
         <v>23</v>
       </c>
@@ -830,7 +832,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="K4" t="s">
         <v>24</v>
       </c>
@@ -841,7 +843,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="K5" t="s">
         <v>25</v>
       </c>
@@ -852,27 +854,27 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U10" t="s">
         <v>46</v>
       </c>
@@ -884,19 +886,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="true" customWidth="true"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -904,7 +906,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -918,22 +920,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="true" customWidth="true"/>
-    <col min="2" max="2" width="11.42578125" bestFit="true" customWidth="true"/>
-    <col min="3" max="3" width="16.5703125" bestFit="true" customWidth="true"/>
-    <col min="4" max="4" width="15.85546875" bestFit="true" customWidth="true"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -947,144 +949,144 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3013691711</v>
+      </c>
+      <c r="B2" t="s">
         <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
       </c>
       <c r="C2">
         <v>21708102017</v>
       </c>
       <c r="D2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>58</v>
-      </c>
-      <c r="B3" t="s">
-        <v>59</v>
       </c>
       <c r="C3">
         <v>22008102017</v>
       </c>
       <c r="D3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>61</v>
-      </c>
-      <c r="B4" t="s">
-        <v>62</v>
       </c>
       <c r="C4">
         <v>22108102017</v>
       </c>
       <c r="D4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>64</v>
-      </c>
-      <c r="B5" t="s">
-        <v>65</v>
       </c>
       <c r="C5">
         <v>22208102017</v>
       </c>
       <c r="D5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>67</v>
-      </c>
-      <c r="B6" t="s">
-        <v>68</v>
       </c>
       <c r="C6">
         <v>22308102017</v>
       </c>
       <c r="D6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>70</v>
-      </c>
-      <c r="B7" t="s">
-        <v>71</v>
       </c>
       <c r="C7">
         <v>22408102017</v>
       </c>
       <c r="D7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>73</v>
-      </c>
-      <c r="B8" t="s">
-        <v>74</v>
       </c>
       <c r="C8">
         <v>22608102017</v>
       </c>
       <c r="D8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>76</v>
-      </c>
-      <c r="B9" t="s">
-        <v>77</v>
       </c>
       <c r="C9">
         <v>22708102017</v>
       </c>
       <c r="D9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>79</v>
-      </c>
-      <c r="B10" t="s">
-        <v>80</v>
       </c>
       <c r="C10">
         <v>22808102017</v>
       </c>
       <c r="D10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>82</v>
-      </c>
-      <c r="B11" t="s">
-        <v>83</v>
       </c>
       <c r="C11">
         <v>22908102017</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -901,7 +901,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2">

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -901,7 +901,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -901,7 +901,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2">

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="98">
   <si>
     <t>Invoice No</t>
   </si>
@@ -271,6 +271,45 @@
   </si>
   <si>
     <t>13141502</t>
+  </si>
+  <si>
+    <t>3013696612</t>
+  </si>
+  <si>
+    <t>1000004634</t>
+  </si>
+  <si>
+    <t>schedNum</t>
+  </si>
+  <si>
+    <t>13187320</t>
+  </si>
+  <si>
+    <t>3013696615</t>
+  </si>
+  <si>
+    <t>1000004635</t>
+  </si>
+  <si>
+    <t>13187327</t>
+  </si>
+  <si>
+    <t>3013696616</t>
+  </si>
+  <si>
+    <t>1000004636</t>
+  </si>
+  <si>
+    <t>13187330</t>
+  </si>
+  <si>
+    <t>3013696618</t>
+  </si>
+  <si>
+    <t>1000004637</t>
+  </si>
+  <si>
+    <t>13187333</t>
   </si>
 </sst>
 </file>
@@ -901,7 +940,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2">
@@ -909,7 +948,7 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -919,7 +958,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D3"/>
@@ -1087,6 +1126,62 @@
         <v>84</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="117">
   <si>
     <t>Invoice No</t>
   </si>
@@ -310,6 +310,63 @@
   </si>
   <si>
     <t>13187333</t>
+  </si>
+  <si>
+    <t>3013696621</t>
+  </si>
+  <si>
+    <t>1000004638</t>
+  </si>
+  <si>
+    <t>13187336</t>
+  </si>
+  <si>
+    <t>3013696526</t>
+  </si>
+  <si>
+    <t>1000004639</t>
+  </si>
+  <si>
+    <t>13185662</t>
+  </si>
+  <si>
+    <t>3013696622</t>
+  </si>
+  <si>
+    <t>1000004641</t>
+  </si>
+  <si>
+    <t>delNum</t>
+  </si>
+  <si>
+    <t>3013696527</t>
+  </si>
+  <si>
+    <t>1000004642</t>
+  </si>
+  <si>
+    <t>13185663</t>
+  </si>
+  <si>
+    <t>3013696351</t>
+  </si>
+  <si>
+    <t>1000004643</t>
+  </si>
+  <si>
+    <t>3013696528</t>
+  </si>
+  <si>
+    <t>1000004645</t>
+  </si>
+  <si>
+    <t>13185664</t>
+  </si>
+  <si>
+    <t>3013696352</t>
+  </si>
+  <si>
+    <t>1000004646</t>
   </si>
 </sst>
 </file>
@@ -940,7 +997,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2">
@@ -948,7 +1005,7 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -958,7 +1015,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D3"/>
@@ -1182,6 +1239,104 @@
         <v>97</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17">
+        <v>20710212017</v>
+      </c>
+      <c r="D17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18">
+        <v>20910212017</v>
+      </c>
+      <c r="D18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19">
+        <v>21010212017</v>
+      </c>
+      <c r="D19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20">
+        <v>21110212017</v>
+      </c>
+      <c r="D20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21">
+        <v>21210212017</v>
+      </c>
+      <c r="D21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22">
+        <v>21310212017</v>
+      </c>
+      <c r="D22" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -997,7 +997,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2">

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="120">
   <si>
     <t>Invoice No</t>
   </si>
@@ -367,6 +367,15 @@
   </si>
   <si>
     <t>1000004646</t>
+  </si>
+  <si>
+    <t>3013696628</t>
+  </si>
+  <si>
+    <t>1000004650</t>
+  </si>
+  <si>
+    <t>13188908</t>
   </si>
 </sst>
 </file>
@@ -997,7 +1006,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2">
@@ -1005,7 +1014,7 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1015,7 +1024,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D3"/>
@@ -1337,6 +1346,20 @@
         <v>114</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" t="s">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="129">
   <si>
     <t>Invoice No</t>
   </si>
@@ -376,6 +376,33 @@
   </si>
   <si>
     <t>13188908</t>
+  </si>
+  <si>
+    <t>3013696632</t>
+  </si>
+  <si>
+    <t>1000004651</t>
+  </si>
+  <si>
+    <t>13188914</t>
+  </si>
+  <si>
+    <t>3013696633</t>
+  </si>
+  <si>
+    <t>1000004652</t>
+  </si>
+  <si>
+    <t>13188916</t>
+  </si>
+  <si>
+    <t>3013696635</t>
+  </si>
+  <si>
+    <t>1000004653</t>
+  </si>
+  <si>
+    <t>13188919</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1033,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
@@ -1014,7 +1041,7 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +1051,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D3"/>
@@ -1360,6 +1387,48 @@
         <v>119</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="132">
   <si>
     <t>Invoice No</t>
   </si>
@@ -403,6 +403,15 @@
   </si>
   <si>
     <t>13188919</t>
+  </si>
+  <si>
+    <t>3013696712</t>
+  </si>
+  <si>
+    <t>1000004654</t>
+  </si>
+  <si>
+    <t>13188995</t>
   </si>
 </sst>
 </file>
@@ -1033,7 +1042,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2">
@@ -1041,7 +1050,7 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1051,7 +1060,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D3"/>
@@ -1429,6 +1438,20 @@
         <v>128</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" t="s">
+        <v>131</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -1042,7 +1042,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2">

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="159">
   <si>
     <t>Invoice No</t>
   </si>
@@ -412,6 +412,87 @@
   </si>
   <si>
     <t>13188995</t>
+  </si>
+  <si>
+    <t>3013696736</t>
+  </si>
+  <si>
+    <t>1000004664</t>
+  </si>
+  <si>
+    <t>13190563</t>
+  </si>
+  <si>
+    <t>3013696737</t>
+  </si>
+  <si>
+    <t>1000004665</t>
+  </si>
+  <si>
+    <t>13190565</t>
+  </si>
+  <si>
+    <t>3013696739</t>
+  </si>
+  <si>
+    <t>1000004667</t>
+  </si>
+  <si>
+    <t>13190569</t>
+  </si>
+  <si>
+    <t>3013696742</t>
+  </si>
+  <si>
+    <t>1000004669</t>
+  </si>
+  <si>
+    <t>13190573</t>
+  </si>
+  <si>
+    <t>3013696745</t>
+  </si>
+  <si>
+    <t>1000004671</t>
+  </si>
+  <si>
+    <t>13190576</t>
+  </si>
+  <si>
+    <t>3013696746</t>
+  </si>
+  <si>
+    <t>1000004672</t>
+  </si>
+  <si>
+    <t>13190579</t>
+  </si>
+  <si>
+    <t>3013696747</t>
+  </si>
+  <si>
+    <t>1000004673</t>
+  </si>
+  <si>
+    <t>13190581</t>
+  </si>
+  <si>
+    <t>3013696748</t>
+  </si>
+  <si>
+    <t>1000004674</t>
+  </si>
+  <si>
+    <t>13190583</t>
+  </si>
+  <si>
+    <t>3013696749</t>
+  </si>
+  <si>
+    <t>1000004675</t>
+  </si>
+  <si>
+    <t>13190585</t>
   </si>
 </sst>
 </file>
@@ -784,7 +865,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1042,7 +1123,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>122</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2">
@@ -1050,7 +1131,7 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1060,7 +1141,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D3"/>
@@ -1452,6 +1533,132 @@
         <v>131</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>144</v>
+      </c>
+      <c r="B32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>150</v>
+      </c>
+      <c r="B34" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>156</v>
+      </c>
+      <c r="B36" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" t="s">
+        <v>158</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -1123,7 +1123,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2">

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="138">
   <si>
     <t>Invoice No</t>
   </si>
@@ -412,6 +412,24 @@
   </si>
   <si>
     <t>13188995</t>
+  </si>
+  <si>
+    <t>3013696738</t>
+  </si>
+  <si>
+    <t>1000004666</t>
+  </si>
+  <si>
+    <t>13190566</t>
+  </si>
+  <si>
+    <t>3013696741</t>
+  </si>
+  <si>
+    <t>1000004668</t>
+  </si>
+  <si>
+    <t>13190571</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1060,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2">
@@ -1050,7 +1068,7 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1060,7 +1078,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D3"/>
@@ -1452,6 +1470,34 @@
         <v>131</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" t="s">
+        <v>137</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8115" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8115" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="139">
   <si>
     <t>Invoice No</t>
   </si>
@@ -427,19 +428,39 @@
   </si>
   <si>
     <t>13190571</t>
+  </si>
+  <si>
+    <t>InvoiceNo</t>
+  </si>
+  <si>
+    <t>COnumber</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -469,10 +490,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -815,7 +841,7 @@
   <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,9 +1108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1503,4 +1527,72 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>3013686313</v>
+      </c>
+      <c r="B2" s="3">
+        <v>904492748</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>3013684370</v>
+      </c>
+      <c r="B3" s="3">
+        <v>904492469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3013688560</v>
+      </c>
+      <c r="B4" s="3">
+        <v>904493578</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3013686777</v>
+      </c>
+      <c r="B5" s="3">
+        <v>904493242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>3013686776</v>
+      </c>
+      <c r="B6" s="3">
+        <v>904493314</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8115" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8115" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -830,7 +830,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1074,7 +1074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1088,7 +1088,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>127</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1533,7 +1533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="141">
   <si>
     <t>Invoice No</t>
   </si>
@@ -434,13 +434,19 @@
   </si>
   <si>
     <t>COnumber</t>
+  </si>
+  <si>
+    <t>3013992287</t>
+  </si>
+  <si>
+    <t>1000004760</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,13 +498,13 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,7 +513,7 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
+        <i val="false"/>
       </font>
       <fill>
         <patternFill>
@@ -517,8 +523,8 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
+        <b val="false"/>
+        <i val="false"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -528,16 +534,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="false" table="false" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -837,40 +838,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="12.5703125" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="10.42578125" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="12" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="14.28515625" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="10.7109375" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="4.85546875" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="15.28515625" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="12.42578125" bestFit="true" customWidth="true"/>
+    <col min="10" max="10" width="16.140625" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="28.42578125" bestFit="true" customWidth="true"/>
+    <col min="12" max="12" width="25.28515625" bestFit="true" customWidth="true"/>
+    <col min="13" max="13" width="14.85546875" bestFit="true" customWidth="true"/>
+    <col min="14" max="14" width="16" bestFit="true" customWidth="true"/>
+    <col min="15" max="15" width="17.28515625" bestFit="true" customWidth="true"/>
+    <col min="16" max="16" width="22.5703125" bestFit="true" customWidth="true"/>
+    <col min="17" max="17" width="16.85546875" bestFit="true" customWidth="true"/>
+    <col min="18" max="18" width="25.140625" bestFit="true" customWidth="true"/>
+    <col min="19" max="19" width="15.140625" bestFit="true" customWidth="true"/>
+    <col min="20" max="20" width="11.7109375" bestFit="true" customWidth="true"/>
+    <col min="21" max="21" width="13.42578125" bestFit="true" customWidth="true"/>
+    <col min="22" max="22" width="27" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -938,7 +939,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2">
         <v>3013684370</v>
       </c>
@@ -1006,7 +1007,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="K3" t="s">
         <v>23</v>
       </c>
@@ -1017,7 +1018,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="K4" t="s">
         <v>24</v>
       </c>
@@ -1028,7 +1029,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="K5" t="s">
         <v>25</v>
       </c>
@@ -1039,27 +1040,27 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="U6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="U7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="U8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="U9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="U10" t="s">
         <v>46</v>
       </c>
@@ -1071,32 +1072,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>49</v>
       </c>
       <c r="B1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
         <v>50</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1105,20 +1106,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="11.42578125" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="16.5703125" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="15.85546875" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -1132,7 +1133,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2">
         <v>3013691711</v>
       </c>
@@ -1146,7 +1147,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -1160,7 +1161,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -1174,7 +1175,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -1188,7 +1189,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -1202,7 +1203,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -1216,7 +1217,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -1230,7 +1231,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>75</v>
       </c>
@@ -1244,7 +1245,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -1258,7 +1259,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>81</v>
       </c>
@@ -1272,7 +1273,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -1286,7 +1287,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>88</v>
       </c>
@@ -1300,7 +1301,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -1314,7 +1315,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>94</v>
       </c>
@@ -1328,7 +1329,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -1342,7 +1343,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>100</v>
       </c>
@@ -1356,7 +1357,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>103</v>
       </c>
@@ -1370,7 +1371,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>106</v>
       </c>
@@ -1384,7 +1385,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>109</v>
       </c>
@@ -1398,7 +1399,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>111</v>
       </c>
@@ -1412,7 +1413,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s">
         <v>114</v>
       </c>
@@ -1426,7 +1427,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
         <v>116</v>
       </c>
@@ -1440,7 +1441,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
         <v>119</v>
       </c>
@@ -1454,7 +1455,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" t="s">
         <v>122</v>
       </c>
@@ -1468,7 +1469,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
         <v>125</v>
       </c>
@@ -1482,7 +1483,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" t="s">
         <v>128</v>
       </c>
@@ -1496,7 +1497,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" t="s">
         <v>131</v>
       </c>
@@ -1510,7 +1511,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -1522,6 +1523,34 @@
       </c>
       <c r="D29" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>139</v>
+      </c>
+      <c r="B30" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1530,18 +1559,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="true"/>
+    <col min="2" max="2" width="13" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="5" t="s">
         <v>138</v>
       </c>
@@ -1549,7 +1578,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="3">
         <v>3013686313</v>
       </c>
@@ -1557,7 +1586,7 @@
         <v>904492748</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" s="3">
         <v>3013684370</v>
       </c>
@@ -1565,7 +1594,7 @@
         <v>904492469</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" s="3">
         <v>3013688560</v>
       </c>
@@ -1574,7 +1603,7 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" s="3">
         <v>3013686777</v>
       </c>
@@ -1582,7 +1611,7 @@
         <v>904493242</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" s="3">
         <v>3013686776</v>
       </c>

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="145">
   <si>
     <t>Invoice No</t>
   </si>
@@ -440,6 +440,18 @@
   </si>
   <si>
     <t>1000004760</t>
+  </si>
+  <si>
+    <t>3013992663</t>
+  </si>
+  <si>
+    <t>1000005334</t>
+  </si>
+  <si>
+    <t>3013992669</t>
+  </si>
+  <si>
+    <t>1000005335</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1101,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -1097,7 +1109,7 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1107,7 +1119,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1550,6 +1562,62 @@
         <v>86</v>
       </c>
       <c r="D31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>143</v>
+      </c>
+      <c r="B34" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>143</v>
+      </c>
+      <c r="B35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" t="s">
         <v>105</v>
       </c>
     </row>

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621" fullCalcOnLoad="true"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -445,8 +445,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -498,13 +498,13 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,7 +513,7 @@
     <dxf>
       <font>
         <b/>
-        <i val="false"/>
+        <i val="0"/>
       </font>
       <fill>
         <patternFill>
@@ -523,8 +523,8 @@
     </dxf>
     <dxf>
       <font>
-        <b val="false"/>
-        <i val="false"/>
+        <b val="0"/>
+        <i val="0"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -534,11 +534,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="false" table="false" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -831,47 +836,47 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="true" customWidth="true"/>
-    <col min="2" max="2" width="12.5703125" bestFit="true" customWidth="true"/>
-    <col min="3" max="3" width="10.42578125" bestFit="true" customWidth="true"/>
-    <col min="4" max="4" width="12" bestFit="true" customWidth="true"/>
-    <col min="5" max="5" width="14.28515625" bestFit="true" customWidth="true"/>
-    <col min="6" max="6" width="10.7109375" bestFit="true" customWidth="true"/>
-    <col min="7" max="7" width="4.85546875" bestFit="true" customWidth="true"/>
-    <col min="8" max="8" width="15.28515625" bestFit="true" customWidth="true"/>
-    <col min="9" max="9" width="12.42578125" bestFit="true" customWidth="true"/>
-    <col min="10" max="10" width="16.140625" bestFit="true" customWidth="true"/>
-    <col min="11" max="11" width="28.42578125" bestFit="true" customWidth="true"/>
-    <col min="12" max="12" width="25.28515625" bestFit="true" customWidth="true"/>
-    <col min="13" max="13" width="14.85546875" bestFit="true" customWidth="true"/>
-    <col min="14" max="14" width="16" bestFit="true" customWidth="true"/>
-    <col min="15" max="15" width="17.28515625" bestFit="true" customWidth="true"/>
-    <col min="16" max="16" width="22.5703125" bestFit="true" customWidth="true"/>
-    <col min="17" max="17" width="16.85546875" bestFit="true" customWidth="true"/>
-    <col min="18" max="18" width="25.140625" bestFit="true" customWidth="true"/>
-    <col min="19" max="19" width="15.140625" bestFit="true" customWidth="true"/>
-    <col min="20" max="20" width="11.7109375" bestFit="true" customWidth="true"/>
-    <col min="21" max="21" width="13.42578125" bestFit="true" customWidth="true"/>
-    <col min="22" max="22" width="27" bestFit="true" customWidth="true"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -939,7 +944,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3013684370</v>
       </c>
@@ -1007,7 +1012,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="K3" t="s">
         <v>23</v>
       </c>
@@ -1018,7 +1023,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="K4" t="s">
         <v>24</v>
       </c>
@@ -1029,7 +1034,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="K5" t="s">
         <v>25</v>
       </c>
@@ -1040,27 +1045,27 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U10" t="s">
         <v>46</v>
       </c>
@@ -1072,27 +1077,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="true" customWidth="true"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>49</v>
       </c>
       <c r="B1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -1106,20 +1111,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="true" customWidth="true"/>
-    <col min="2" max="2" width="11.42578125" bestFit="true" customWidth="true"/>
-    <col min="3" max="3" width="16.5703125" bestFit="true" customWidth="true"/>
-    <col min="4" max="4" width="15.85546875" bestFit="true" customWidth="true"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -1133,7 +1138,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3013691711</v>
       </c>
@@ -1147,7 +1152,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -1161,7 +1166,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -1175,7 +1180,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -1189,7 +1194,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -1203,7 +1208,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -1217,7 +1222,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -1231,7 +1236,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>75</v>
       </c>
@@ -1245,7 +1250,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -1259,7 +1264,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>81</v>
       </c>
@@ -1273,7 +1278,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -1287,7 +1292,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>88</v>
       </c>
@@ -1301,7 +1306,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -1315,7 +1320,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>94</v>
       </c>
@@ -1329,7 +1334,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -1343,7 +1348,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>100</v>
       </c>
@@ -1357,7 +1362,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>103</v>
       </c>
@@ -1371,7 +1376,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>106</v>
       </c>
@@ -1385,7 +1390,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>109</v>
       </c>
@@ -1399,7 +1404,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>111</v>
       </c>
@@ -1413,7 +1418,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>114</v>
       </c>
@@ -1427,7 +1432,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>116</v>
       </c>
@@ -1441,7 +1446,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>119</v>
       </c>
@@ -1455,7 +1460,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>122</v>
       </c>
@@ -1469,7 +1474,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>125</v>
       </c>
@@ -1483,7 +1488,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>128</v>
       </c>
@@ -1497,7 +1502,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>131</v>
       </c>
@@ -1511,7 +1516,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -1525,7 +1530,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>139</v>
       </c>
@@ -1539,7 +1544,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>139</v>
       </c>
@@ -1559,18 +1564,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="true"/>
-    <col min="2" max="2" width="13" customWidth="true"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>138</v>
       </c>
@@ -1578,7 +1583,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>3013686313</v>
       </c>
@@ -1586,7 +1591,7 @@
         <v>904492748</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>3013684370</v>
       </c>
@@ -1594,7 +1599,7 @@
         <v>904492469</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3013688560</v>
       </c>
@@ -1603,7 +1608,7 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3013686777</v>
       </c>
@@ -1611,7 +1616,7 @@
         <v>904493242</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3013686776</v>
       </c>

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="191">
   <si>
     <t>Invoice No</t>
   </si>
@@ -440,13 +440,163 @@
   </si>
   <si>
     <t>1000004760</t>
+  </si>
+  <si>
+    <t>3013696904</t>
+  </si>
+  <si>
+    <t>1000004741</t>
+  </si>
+  <si>
+    <t>3013994667</t>
+  </si>
+  <si>
+    <t>1000005575</t>
+  </si>
+  <si>
+    <t>3013994676</t>
+  </si>
+  <si>
+    <t>1000005576</t>
+  </si>
+  <si>
+    <t>3013994685</t>
+  </si>
+  <si>
+    <t>1000005577</t>
+  </si>
+  <si>
+    <t>3013994717</t>
+  </si>
+  <si>
+    <t>1000005578</t>
+  </si>
+  <si>
+    <t>3013994722</t>
+  </si>
+  <si>
+    <t>1000005579</t>
+  </si>
+  <si>
+    <t>3013994723</t>
+  </si>
+  <si>
+    <t>1000005580</t>
+  </si>
+  <si>
+    <t>3013994725</t>
+  </si>
+  <si>
+    <t>1000005581</t>
+  </si>
+  <si>
+    <t>3013994731</t>
+  </si>
+  <si>
+    <t>1000005582</t>
+  </si>
+  <si>
+    <t>3013994737</t>
+  </si>
+  <si>
+    <t>1000005583</t>
+  </si>
+  <si>
+    <t>3013994738</t>
+  </si>
+  <si>
+    <t>1000005584</t>
+  </si>
+  <si>
+    <t>3013994739</t>
+  </si>
+  <si>
+    <t>1000005585</t>
+  </si>
+  <si>
+    <t>3013994748</t>
+  </si>
+  <si>
+    <t>1000005586</t>
+  </si>
+  <si>
+    <t>3013994749</t>
+  </si>
+  <si>
+    <t>1000005587</t>
+  </si>
+  <si>
+    <t>3013994751</t>
+  </si>
+  <si>
+    <t>1000005588</t>
+  </si>
+  <si>
+    <t>3013994753</t>
+  </si>
+  <si>
+    <t>1000005589</t>
+  </si>
+  <si>
+    <t>3013994754</t>
+  </si>
+  <si>
+    <t>1000005590</t>
+  </si>
+  <si>
+    <t>3013994757</t>
+  </si>
+  <si>
+    <t>1000005591</t>
+  </si>
+  <si>
+    <t>3013994758</t>
+  </si>
+  <si>
+    <t>1000005603</t>
+  </si>
+  <si>
+    <t>3013994759</t>
+  </si>
+  <si>
+    <t>1000005608</t>
+  </si>
+  <si>
+    <t>3013994760</t>
+  </si>
+  <si>
+    <t>1000005609</t>
+  </si>
+  <si>
+    <t>3013994761</t>
+  </si>
+  <si>
+    <t>1000005610</t>
+  </si>
+  <si>
+    <t>3013994763</t>
+  </si>
+  <si>
+    <t>1000005611</t>
+  </si>
+  <si>
+    <t>3013994764</t>
+  </si>
+  <si>
+    <t>1000005612</t>
+  </si>
+  <si>
+    <t>3013994765</t>
+  </si>
+  <si>
+    <t>1000005613</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -498,13 +648,13 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,7 +663,7 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
+        <i val="false"/>
       </font>
       <fill>
         <patternFill>
@@ -523,8 +673,8 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
+        <b val="false"/>
+        <i val="false"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -534,16 +684,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="false" table="false" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -843,40 +988,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="12.5703125" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="10.42578125" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="12" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="14.28515625" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="10.7109375" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="4.85546875" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="15.28515625" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="12.42578125" bestFit="true" customWidth="true"/>
+    <col min="10" max="10" width="16.140625" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="28.42578125" bestFit="true" customWidth="true"/>
+    <col min="12" max="12" width="25.28515625" bestFit="true" customWidth="true"/>
+    <col min="13" max="13" width="14.85546875" bestFit="true" customWidth="true"/>
+    <col min="14" max="14" width="16" bestFit="true" customWidth="true"/>
+    <col min="15" max="15" width="17.28515625" bestFit="true" customWidth="true"/>
+    <col min="16" max="16" width="22.5703125" bestFit="true" customWidth="true"/>
+    <col min="17" max="17" width="16.85546875" bestFit="true" customWidth="true"/>
+    <col min="18" max="18" width="25.140625" bestFit="true" customWidth="true"/>
+    <col min="19" max="19" width="15.140625" bestFit="true" customWidth="true"/>
+    <col min="20" max="20" width="11.7109375" bestFit="true" customWidth="true"/>
+    <col min="21" max="21" width="13.42578125" bestFit="true" customWidth="true"/>
+    <col min="22" max="22" width="27" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -944,7 +1089,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2">
         <v>3013684370</v>
       </c>
@@ -1012,7 +1157,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="K3" t="s">
         <v>23</v>
       </c>
@@ -1023,7 +1168,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="K4" t="s">
         <v>24</v>
       </c>
@@ -1034,7 +1179,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="K5" t="s">
         <v>25</v>
       </c>
@@ -1045,27 +1190,27 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="U6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="U7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="U8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="U9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="U10" t="s">
         <v>46</v>
       </c>
@@ -1077,32 +1222,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>49</v>
       </c>
       <c r="B1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
         <v>50</v>
       </c>
       <c r="B2">
-        <v>32</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1111,20 +1256,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="11.42578125" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="16.5703125" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="15.85546875" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -1138,7 +1283,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2">
         <v>3013691711</v>
       </c>
@@ -1152,7 +1297,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -1166,7 +1311,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -1180,7 +1325,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -1194,7 +1339,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -1208,7 +1353,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -1222,7 +1367,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -1236,7 +1381,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>75</v>
       </c>
@@ -1250,7 +1395,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -1264,7 +1409,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>81</v>
       </c>
@@ -1278,7 +1423,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -1292,7 +1437,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>88</v>
       </c>
@@ -1306,7 +1451,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -1320,7 +1465,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>94</v>
       </c>
@@ -1334,7 +1479,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -1348,7 +1493,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>100</v>
       </c>
@@ -1362,7 +1507,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>103</v>
       </c>
@@ -1376,7 +1521,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>106</v>
       </c>
@@ -1390,7 +1535,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>109</v>
       </c>
@@ -1404,7 +1549,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>111</v>
       </c>
@@ -1418,7 +1563,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s">
         <v>114</v>
       </c>
@@ -1432,7 +1577,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
         <v>116</v>
       </c>
@@ -1446,7 +1591,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
         <v>119</v>
       </c>
@@ -1460,7 +1605,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" t="s">
         <v>122</v>
       </c>
@@ -1474,7 +1619,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
         <v>125</v>
       </c>
@@ -1488,7 +1633,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" t="s">
         <v>128</v>
       </c>
@@ -1502,7 +1647,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" t="s">
         <v>131</v>
       </c>
@@ -1516,7 +1661,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -1530,7 +1675,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" t="s">
         <v>139</v>
       </c>
@@ -1544,7 +1689,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" t="s">
         <v>139</v>
       </c>
@@ -1555,6 +1700,692 @@
         <v>86</v>
       </c>
       <c r="D31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>143</v>
+      </c>
+      <c r="B34" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" t="s">
+        <v>148</v>
+      </c>
+      <c r="C37" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>149</v>
+      </c>
+      <c r="B39" t="s">
+        <v>150</v>
+      </c>
+      <c r="C39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>151</v>
+      </c>
+      <c r="B41" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>151</v>
+      </c>
+      <c r="B42" t="s">
+        <v>152</v>
+      </c>
+      <c r="C42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>153</v>
+      </c>
+      <c r="B43" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>153</v>
+      </c>
+      <c r="B44" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>155</v>
+      </c>
+      <c r="B45" t="s">
+        <v>156</v>
+      </c>
+      <c r="C45" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>155</v>
+      </c>
+      <c r="B46" t="s">
+        <v>156</v>
+      </c>
+      <c r="C46" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>157</v>
+      </c>
+      <c r="B47" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>157</v>
+      </c>
+      <c r="B48" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>159</v>
+      </c>
+      <c r="B49" t="s">
+        <v>160</v>
+      </c>
+      <c r="C49" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B50" t="s">
+        <v>160</v>
+      </c>
+      <c r="C50" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>161</v>
+      </c>
+      <c r="B51" t="s">
+        <v>162</v>
+      </c>
+      <c r="C51" t="s">
+        <v>86</v>
+      </c>
+      <c r="D51" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52" t="s">
+        <v>162</v>
+      </c>
+      <c r="C52" t="s">
+        <v>86</v>
+      </c>
+      <c r="D52" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>163</v>
+      </c>
+      <c r="B53" t="s">
+        <v>164</v>
+      </c>
+      <c r="C53" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>163</v>
+      </c>
+      <c r="B54" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54" t="s">
+        <v>86</v>
+      </c>
+      <c r="D54" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>165</v>
+      </c>
+      <c r="B55" t="s">
+        <v>166</v>
+      </c>
+      <c r="C55" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>165</v>
+      </c>
+      <c r="B56" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" t="s">
+        <v>86</v>
+      </c>
+      <c r="D56" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>167</v>
+      </c>
+      <c r="B57" t="s">
+        <v>168</v>
+      </c>
+      <c r="C57" t="s">
+        <v>86</v>
+      </c>
+      <c r="D57" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>167</v>
+      </c>
+      <c r="B58" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>169</v>
+      </c>
+      <c r="B59" t="s">
+        <v>170</v>
+      </c>
+      <c r="C59" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>169</v>
+      </c>
+      <c r="B60" t="s">
+        <v>170</v>
+      </c>
+      <c r="C60" t="s">
+        <v>86</v>
+      </c>
+      <c r="D60" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>171</v>
+      </c>
+      <c r="B61" t="s">
+        <v>172</v>
+      </c>
+      <c r="C61" t="s">
+        <v>86</v>
+      </c>
+      <c r="D61" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>171</v>
+      </c>
+      <c r="B62" t="s">
+        <v>172</v>
+      </c>
+      <c r="C62" t="s">
+        <v>86</v>
+      </c>
+      <c r="D62" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>173</v>
+      </c>
+      <c r="B63" t="s">
+        <v>174</v>
+      </c>
+      <c r="C63" t="s">
+        <v>86</v>
+      </c>
+      <c r="D63" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>173</v>
+      </c>
+      <c r="B64" t="s">
+        <v>174</v>
+      </c>
+      <c r="C64" t="s">
+        <v>86</v>
+      </c>
+      <c r="D64" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>175</v>
+      </c>
+      <c r="B65" t="s">
+        <v>176</v>
+      </c>
+      <c r="C65" t="s">
+        <v>86</v>
+      </c>
+      <c r="D65" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>175</v>
+      </c>
+      <c r="B66" t="s">
+        <v>176</v>
+      </c>
+      <c r="C66" t="s">
+        <v>86</v>
+      </c>
+      <c r="D66" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>177</v>
+      </c>
+      <c r="B67" t="s">
+        <v>178</v>
+      </c>
+      <c r="C67" t="s">
+        <v>86</v>
+      </c>
+      <c r="D67" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>177</v>
+      </c>
+      <c r="B68" t="s">
+        <v>178</v>
+      </c>
+      <c r="C68" t="s">
+        <v>86</v>
+      </c>
+      <c r="D68" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>179</v>
+      </c>
+      <c r="B69" t="s">
+        <v>180</v>
+      </c>
+      <c r="C69" t="s">
+        <v>86</v>
+      </c>
+      <c r="D69" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>179</v>
+      </c>
+      <c r="B70" t="s">
+        <v>180</v>
+      </c>
+      <c r="C70" t="s">
+        <v>86</v>
+      </c>
+      <c r="D70" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>181</v>
+      </c>
+      <c r="B71" t="s">
+        <v>182</v>
+      </c>
+      <c r="C71" t="s">
+        <v>86</v>
+      </c>
+      <c r="D71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>181</v>
+      </c>
+      <c r="B72" t="s">
+        <v>182</v>
+      </c>
+      <c r="C72" t="s">
+        <v>86</v>
+      </c>
+      <c r="D72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>183</v>
+      </c>
+      <c r="B73" t="s">
+        <v>184</v>
+      </c>
+      <c r="C73" t="s">
+        <v>86</v>
+      </c>
+      <c r="D73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>183</v>
+      </c>
+      <c r="B74" t="s">
+        <v>184</v>
+      </c>
+      <c r="C74" t="s">
+        <v>86</v>
+      </c>
+      <c r="D74" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>185</v>
+      </c>
+      <c r="B75" t="s">
+        <v>186</v>
+      </c>
+      <c r="C75" t="s">
+        <v>86</v>
+      </c>
+      <c r="D75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>185</v>
+      </c>
+      <c r="B76" t="s">
+        <v>186</v>
+      </c>
+      <c r="C76" t="s">
+        <v>86</v>
+      </c>
+      <c r="D76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>187</v>
+      </c>
+      <c r="B77" t="s">
+        <v>188</v>
+      </c>
+      <c r="C77" t="s">
+        <v>86</v>
+      </c>
+      <c r="D77" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>187</v>
+      </c>
+      <c r="B78" t="s">
+        <v>188</v>
+      </c>
+      <c r="C78" t="s">
+        <v>86</v>
+      </c>
+      <c r="D78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>189</v>
+      </c>
+      <c r="B79" t="s">
+        <v>190</v>
+      </c>
+      <c r="C79" t="s">
+        <v>86</v>
+      </c>
+      <c r="D79" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>189</v>
+      </c>
+      <c r="B80" t="s">
+        <v>190</v>
+      </c>
+      <c r="C80" t="s">
+        <v>86</v>
+      </c>
+      <c r="D80" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1564,18 +2395,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="true"/>
+    <col min="2" max="2" width="13" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="5" t="s">
         <v>138</v>
       </c>
@@ -1583,7 +2414,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="3">
         <v>3013686313</v>
       </c>
@@ -1591,7 +2422,7 @@
         <v>904492748</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" s="3">
         <v>3013684370</v>
       </c>
@@ -1599,7 +2430,7 @@
         <v>904492469</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" s="3">
         <v>3013688560</v>
       </c>
@@ -1608,7 +2439,7 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" s="3">
         <v>3013686777</v>
       </c>
@@ -1616,7 +2447,7 @@
         <v>904493242</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" s="3">
         <v>3013686776</v>
       </c>

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="193">
   <si>
     <t>Invoice No</t>
   </si>
@@ -590,6 +590,12 @@
   </si>
   <si>
     <t>1000005613</t>
+  </si>
+  <si>
+    <t>3013995087</t>
+  </si>
+  <si>
+    <t>1000006054</t>
   </si>
 </sst>
 </file>
@@ -1239,7 +1245,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
@@ -1247,7 +1253,7 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1257,7 +1263,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2386,6 +2392,34 @@
         <v>86</v>
       </c>
       <c r="D80" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>191</v>
+      </c>
+      <c r="B81" t="s">
+        <v>192</v>
+      </c>
+      <c r="C81" t="s">
+        <v>86</v>
+      </c>
+      <c r="D81" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>191</v>
+      </c>
+      <c r="B82" t="s">
+        <v>192</v>
+      </c>
+      <c r="C82" t="s">
+        <v>86</v>
+      </c>
+      <c r="D82" t="s">
         <v>105</v>
       </c>
     </row>

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="195">
   <si>
     <t>Invoice No</t>
   </si>
@@ -596,6 +596,12 @@
   </si>
   <si>
     <t>1000006054</t>
+  </si>
+  <si>
+    <t>3013696912</t>
+  </si>
+  <si>
+    <t>1000004785</t>
   </si>
 </sst>
 </file>
@@ -1245,7 +1251,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
@@ -1253,7 +1259,7 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1263,7 +1269,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2420,6 +2426,20 @@
         <v>86</v>
       </c>
       <c r="D82" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>193</v>
+      </c>
+      <c r="B83" t="s">
+        <v>194</v>
+      </c>
+      <c r="C83">
+        <v>14010192017</v>
+      </c>
+      <c r="D83" t="s">
         <v>105</v>
       </c>
     </row>

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="211">
   <si>
     <t>Invoice No</t>
   </si>
@@ -602,6 +602,54 @@
   </si>
   <si>
     <t>1000004785</t>
+  </si>
+  <si>
+    <t>3013997674</t>
+  </si>
+  <si>
+    <t>1000006801</t>
+  </si>
+  <si>
+    <t>3013997697</t>
+  </si>
+  <si>
+    <t>1000006802</t>
+  </si>
+  <si>
+    <t>3013997714</t>
+  </si>
+  <si>
+    <t>1000006803</t>
+  </si>
+  <si>
+    <t>3013997740</t>
+  </si>
+  <si>
+    <t>1000006809</t>
+  </si>
+  <si>
+    <t>3013997783</t>
+  </si>
+  <si>
+    <t>1000006810</t>
+  </si>
+  <si>
+    <t>3013997789</t>
+  </si>
+  <si>
+    <t>1000006811</t>
+  </si>
+  <si>
+    <t>3013997803</t>
+  </si>
+  <si>
+    <t>1000006812</t>
+  </si>
+  <si>
+    <t>3013997819</t>
+  </si>
+  <si>
+    <t>1000006813</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1299,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -1259,7 +1307,7 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1269,7 +1317,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2440,6 +2488,230 @@
         <v>14010192017</v>
       </c>
       <c r="D83" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>195</v>
+      </c>
+      <c r="B84" t="s">
+        <v>196</v>
+      </c>
+      <c r="C84" t="s">
+        <v>86</v>
+      </c>
+      <c r="D84" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>195</v>
+      </c>
+      <c r="B85" t="s">
+        <v>196</v>
+      </c>
+      <c r="C85" t="s">
+        <v>86</v>
+      </c>
+      <c r="D85" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>197</v>
+      </c>
+      <c r="B86" t="s">
+        <v>198</v>
+      </c>
+      <c r="C86" t="s">
+        <v>86</v>
+      </c>
+      <c r="D86" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>197</v>
+      </c>
+      <c r="B87" t="s">
+        <v>198</v>
+      </c>
+      <c r="C87" t="s">
+        <v>86</v>
+      </c>
+      <c r="D87" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>199</v>
+      </c>
+      <c r="B88" t="s">
+        <v>200</v>
+      </c>
+      <c r="C88" t="s">
+        <v>86</v>
+      </c>
+      <c r="D88" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>199</v>
+      </c>
+      <c r="B89" t="s">
+        <v>200</v>
+      </c>
+      <c r="C89" t="s">
+        <v>86</v>
+      </c>
+      <c r="D89" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>201</v>
+      </c>
+      <c r="B90" t="s">
+        <v>202</v>
+      </c>
+      <c r="C90" t="s">
+        <v>86</v>
+      </c>
+      <c r="D90" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>201</v>
+      </c>
+      <c r="B91" t="s">
+        <v>202</v>
+      </c>
+      <c r="C91" t="s">
+        <v>86</v>
+      </c>
+      <c r="D91" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>203</v>
+      </c>
+      <c r="B92" t="s">
+        <v>204</v>
+      </c>
+      <c r="C92" t="s">
+        <v>86</v>
+      </c>
+      <c r="D92" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>203</v>
+      </c>
+      <c r="B93" t="s">
+        <v>204</v>
+      </c>
+      <c r="C93" t="s">
+        <v>86</v>
+      </c>
+      <c r="D93" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>205</v>
+      </c>
+      <c r="B94" t="s">
+        <v>206</v>
+      </c>
+      <c r="C94" t="s">
+        <v>86</v>
+      </c>
+      <c r="D94" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>205</v>
+      </c>
+      <c r="B95" t="s">
+        <v>206</v>
+      </c>
+      <c r="C95" t="s">
+        <v>86</v>
+      </c>
+      <c r="D95" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>207</v>
+      </c>
+      <c r="B96" t="s">
+        <v>208</v>
+      </c>
+      <c r="C96" t="s">
+        <v>86</v>
+      </c>
+      <c r="D96" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>207</v>
+      </c>
+      <c r="B97" t="s">
+        <v>208</v>
+      </c>
+      <c r="C97" t="s">
+        <v>86</v>
+      </c>
+      <c r="D97" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>209</v>
+      </c>
+      <c r="B98" t="s">
+        <v>210</v>
+      </c>
+      <c r="C98" t="s">
+        <v>86</v>
+      </c>
+      <c r="D98" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>209</v>
+      </c>
+      <c r="B99" t="s">
+        <v>210</v>
+      </c>
+      <c r="C99" t="s">
+        <v>86</v>
+      </c>
+      <c r="D99" t="s">
         <v>105</v>
       </c>
     </row>

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="227">
   <si>
     <t>Invoice No</t>
   </si>
@@ -650,6 +650,54 @@
   </si>
   <si>
     <t>1000006813</t>
+  </si>
+  <si>
+    <t>3013997825</t>
+  </si>
+  <si>
+    <t>1000006814</t>
+  </si>
+  <si>
+    <t>3013997830</t>
+  </si>
+  <si>
+    <t>1000006815</t>
+  </si>
+  <si>
+    <t>3013997839</t>
+  </si>
+  <si>
+    <t>1000006816</t>
+  </si>
+  <si>
+    <t>3013997843</t>
+  </si>
+  <si>
+    <t>1000006830</t>
+  </si>
+  <si>
+    <t>3013997849</t>
+  </si>
+  <si>
+    <t>1000006831</t>
+  </si>
+  <si>
+    <t>3013997850</t>
+  </si>
+  <si>
+    <t>1000006832</t>
+  </si>
+  <si>
+    <t>3013997851</t>
+  </si>
+  <si>
+    <t>1000006834</t>
+  </si>
+  <si>
+    <t>3013997852</t>
+  </si>
+  <si>
+    <t>1000006835</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1347,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
@@ -1307,7 +1355,7 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1317,7 +1365,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:D115"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2712,6 +2760,230 @@
         <v>86</v>
       </c>
       <c r="D99" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>211</v>
+      </c>
+      <c r="B100" t="s">
+        <v>212</v>
+      </c>
+      <c r="C100" t="s">
+        <v>86</v>
+      </c>
+      <c r="D100" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>211</v>
+      </c>
+      <c r="B101" t="s">
+        <v>212</v>
+      </c>
+      <c r="C101" t="s">
+        <v>86</v>
+      </c>
+      <c r="D101" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>213</v>
+      </c>
+      <c r="B102" t="s">
+        <v>214</v>
+      </c>
+      <c r="C102" t="s">
+        <v>86</v>
+      </c>
+      <c r="D102" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>213</v>
+      </c>
+      <c r="B103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C103" t="s">
+        <v>86</v>
+      </c>
+      <c r="D103" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>215</v>
+      </c>
+      <c r="B104" t="s">
+        <v>216</v>
+      </c>
+      <c r="C104" t="s">
+        <v>86</v>
+      </c>
+      <c r="D104" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>215</v>
+      </c>
+      <c r="B105" t="s">
+        <v>216</v>
+      </c>
+      <c r="C105" t="s">
+        <v>86</v>
+      </c>
+      <c r="D105" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>217</v>
+      </c>
+      <c r="B106" t="s">
+        <v>218</v>
+      </c>
+      <c r="C106" t="s">
+        <v>86</v>
+      </c>
+      <c r="D106" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>217</v>
+      </c>
+      <c r="B107" t="s">
+        <v>218</v>
+      </c>
+      <c r="C107" t="s">
+        <v>86</v>
+      </c>
+      <c r="D107" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>219</v>
+      </c>
+      <c r="B108" t="s">
+        <v>220</v>
+      </c>
+      <c r="C108" t="s">
+        <v>86</v>
+      </c>
+      <c r="D108" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>219</v>
+      </c>
+      <c r="B109" t="s">
+        <v>220</v>
+      </c>
+      <c r="C109" t="s">
+        <v>86</v>
+      </c>
+      <c r="D109" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>221</v>
+      </c>
+      <c r="B110" t="s">
+        <v>222</v>
+      </c>
+      <c r="C110" t="s">
+        <v>86</v>
+      </c>
+      <c r="D110" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>221</v>
+      </c>
+      <c r="B111" t="s">
+        <v>222</v>
+      </c>
+      <c r="C111" t="s">
+        <v>86</v>
+      </c>
+      <c r="D111" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>223</v>
+      </c>
+      <c r="B112" t="s">
+        <v>224</v>
+      </c>
+      <c r="C112" t="s">
+        <v>86</v>
+      </c>
+      <c r="D112" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>223</v>
+      </c>
+      <c r="B113" t="s">
+        <v>224</v>
+      </c>
+      <c r="C113" t="s">
+        <v>86</v>
+      </c>
+      <c r="D113" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>225</v>
+      </c>
+      <c r="B114" t="s">
+        <v>226</v>
+      </c>
+      <c r="C114" t="s">
+        <v>86</v>
+      </c>
+      <c r="D114" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>225</v>
+      </c>
+      <c r="B115" t="s">
+        <v>226</v>
+      </c>
+      <c r="C115" t="s">
+        <v>86</v>
+      </c>
+      <c r="D115" t="s">
         <v>105</v>
       </c>
     </row>

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -1347,7 +1347,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2">

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="243">
   <si>
     <t>Invoice No</t>
   </si>
@@ -698,6 +698,54 @@
   </si>
   <si>
     <t>1000006835</t>
+  </si>
+  <si>
+    <t>3013997926</t>
+  </si>
+  <si>
+    <t>1000007569</t>
+  </si>
+  <si>
+    <t>3013997928</t>
+  </si>
+  <si>
+    <t>1000007570</t>
+  </si>
+  <si>
+    <t>3013997931</t>
+  </si>
+  <si>
+    <t>1000007575</t>
+  </si>
+  <si>
+    <t>3013997935</t>
+  </si>
+  <si>
+    <t>1000007576</t>
+  </si>
+  <si>
+    <t>3013997940</t>
+  </si>
+  <si>
+    <t>1000007588</t>
+  </si>
+  <si>
+    <t>3013997942</t>
+  </si>
+  <si>
+    <t>1000007589</t>
+  </si>
+  <si>
+    <t>3013997947</t>
+  </si>
+  <si>
+    <t>1000007590</t>
+  </si>
+  <si>
+    <t>3013998093</t>
+  </si>
+  <si>
+    <t>1000007591</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1395,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2">
@@ -1355,7 +1403,7 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>116</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1365,7 +1413,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D115"/>
+  <dimension ref="A1:D131"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2984,6 +3032,230 @@
         <v>86</v>
       </c>
       <c r="D115" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>227</v>
+      </c>
+      <c r="B116" t="s">
+        <v>228</v>
+      </c>
+      <c r="C116" t="s">
+        <v>86</v>
+      </c>
+      <c r="D116" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>227</v>
+      </c>
+      <c r="B117" t="s">
+        <v>228</v>
+      </c>
+      <c r="C117" t="s">
+        <v>86</v>
+      </c>
+      <c r="D117" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>229</v>
+      </c>
+      <c r="B118" t="s">
+        <v>230</v>
+      </c>
+      <c r="C118" t="s">
+        <v>86</v>
+      </c>
+      <c r="D118" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>229</v>
+      </c>
+      <c r="B119" t="s">
+        <v>230</v>
+      </c>
+      <c r="C119" t="s">
+        <v>86</v>
+      </c>
+      <c r="D119" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>231</v>
+      </c>
+      <c r="B120" t="s">
+        <v>232</v>
+      </c>
+      <c r="C120" t="s">
+        <v>86</v>
+      </c>
+      <c r="D120" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>231</v>
+      </c>
+      <c r="B121" t="s">
+        <v>232</v>
+      </c>
+      <c r="C121" t="s">
+        <v>86</v>
+      </c>
+      <c r="D121" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>233</v>
+      </c>
+      <c r="B122" t="s">
+        <v>234</v>
+      </c>
+      <c r="C122" t="s">
+        <v>86</v>
+      </c>
+      <c r="D122" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>233</v>
+      </c>
+      <c r="B123" t="s">
+        <v>234</v>
+      </c>
+      <c r="C123" t="s">
+        <v>86</v>
+      </c>
+      <c r="D123" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>235</v>
+      </c>
+      <c r="B124" t="s">
+        <v>236</v>
+      </c>
+      <c r="C124" t="s">
+        <v>86</v>
+      </c>
+      <c r="D124" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>235</v>
+      </c>
+      <c r="B125" t="s">
+        <v>236</v>
+      </c>
+      <c r="C125" t="s">
+        <v>86</v>
+      </c>
+      <c r="D125" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>237</v>
+      </c>
+      <c r="B126" t="s">
+        <v>238</v>
+      </c>
+      <c r="C126" t="s">
+        <v>86</v>
+      </c>
+      <c r="D126" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>237</v>
+      </c>
+      <c r="B127" t="s">
+        <v>238</v>
+      </c>
+      <c r="C127" t="s">
+        <v>86</v>
+      </c>
+      <c r="D127" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>239</v>
+      </c>
+      <c r="B128" t="s">
+        <v>240</v>
+      </c>
+      <c r="C128" t="s">
+        <v>86</v>
+      </c>
+      <c r="D128" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>239</v>
+      </c>
+      <c r="B129" t="s">
+        <v>240</v>
+      </c>
+      <c r="C129" t="s">
+        <v>86</v>
+      </c>
+      <c r="D129" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>241</v>
+      </c>
+      <c r="B130" t="s">
+        <v>242</v>
+      </c>
+      <c r="C130" t="s">
+        <v>86</v>
+      </c>
+      <c r="D130" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>241</v>
+      </c>
+      <c r="B131" t="s">
+        <v>242</v>
+      </c>
+      <c r="C131" t="s">
+        <v>86</v>
+      </c>
+      <c r="D131" t="s">
         <v>105</v>
       </c>
     </row>

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8115" activeTab="1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="229">
   <si>
     <t>Invoice No</t>
   </si>
@@ -698,6 +698,12 @@
   </si>
   <si>
     <t>1000006835</t>
+  </si>
+  <si>
+    <t>3013992465</t>
+  </si>
+  <si>
+    <t>1000007592</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1095,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1334,7 +1340,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1347,7 +1353,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
@@ -1355,7 +1361,7 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1365,7 +1371,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D115"/>
+  <dimension ref="A1:D116"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2984,6 +2990,20 @@
         <v>86</v>
       </c>
       <c r="D115" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>227</v>
+      </c>
+      <c r="B116" t="s">
+        <v>228</v>
+      </c>
+      <c r="C116">
+        <v>17210192017</v>
+      </c>
+      <c r="D116" t="s">
         <v>105</v>
       </c>
     </row>

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="231">
   <si>
     <t>Invoice No</t>
   </si>
@@ -704,6 +704,12 @@
   </si>
   <si>
     <t>1000007592</t>
+  </si>
+  <si>
+    <t>3013992650</t>
+  </si>
+  <si>
+    <t>1000007604</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1359,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
@@ -1361,7 +1367,7 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1371,7 +1377,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D116"/>
+  <dimension ref="A1:D117"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3004,6 +3010,20 @@
         <v>17210192017</v>
       </c>
       <c r="D116" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>229</v>
+      </c>
+      <c r="B117" t="s">
+        <v>230</v>
+      </c>
+      <c r="C117">
+        <v>17510192017</v>
+      </c>
+      <c r="D117" t="s">
         <v>105</v>
       </c>
     </row>

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="283">
   <si>
     <t>Invoice No</t>
   </si>
@@ -710,6 +710,162 @@
   </si>
   <si>
     <t>1000007604</t>
+  </si>
+  <si>
+    <t>3014009410</t>
+  </si>
+  <si>
+    <t>1000014225</t>
+  </si>
+  <si>
+    <t>3014009416</t>
+  </si>
+  <si>
+    <t>1000017592</t>
+  </si>
+  <si>
+    <t>3014009417</t>
+  </si>
+  <si>
+    <t>1000019493</t>
+  </si>
+  <si>
+    <t>3014009471</t>
+  </si>
+  <si>
+    <t>1000020236</t>
+  </si>
+  <si>
+    <t>3014009472</t>
+  </si>
+  <si>
+    <t>1000020237</t>
+  </si>
+  <si>
+    <t>3014009473</t>
+  </si>
+  <si>
+    <t>1000020238</t>
+  </si>
+  <si>
+    <t>3014009474</t>
+  </si>
+  <si>
+    <t>1000020239</t>
+  </si>
+  <si>
+    <t>3014009475</t>
+  </si>
+  <si>
+    <t>1000020240</t>
+  </si>
+  <si>
+    <t>3014009476</t>
+  </si>
+  <si>
+    <t>1000020241</t>
+  </si>
+  <si>
+    <t>3014009477</t>
+  </si>
+  <si>
+    <t>1000020242</t>
+  </si>
+  <si>
+    <t>3014009478</t>
+  </si>
+  <si>
+    <t>1000020245</t>
+  </si>
+  <si>
+    <t>3014009479</t>
+  </si>
+  <si>
+    <t>1000020246</t>
+  </si>
+  <si>
+    <t>3014009480</t>
+  </si>
+  <si>
+    <t>1000020247</t>
+  </si>
+  <si>
+    <t>3014009482</t>
+  </si>
+  <si>
+    <t>1000020250</t>
+  </si>
+  <si>
+    <t>3014009486</t>
+  </si>
+  <si>
+    <t>1000020251</t>
+  </si>
+  <si>
+    <t>3014009489</t>
+  </si>
+  <si>
+    <t>1000020254</t>
+  </si>
+  <si>
+    <t>3014009494</t>
+  </si>
+  <si>
+    <t>1000020255</t>
+  </si>
+  <si>
+    <t>3014009495</t>
+  </si>
+  <si>
+    <t>1000020256</t>
+  </si>
+  <si>
+    <t>3014009496</t>
+  </si>
+  <si>
+    <t>1000020257</t>
+  </si>
+  <si>
+    <t>3014009497</t>
+  </si>
+  <si>
+    <t>1000020258</t>
+  </si>
+  <si>
+    <t>3014009498</t>
+  </si>
+  <si>
+    <t>1000020259</t>
+  </si>
+  <si>
+    <t>3014009499</t>
+  </si>
+  <si>
+    <t>1000020260</t>
+  </si>
+  <si>
+    <t>3014009501</t>
+  </si>
+  <si>
+    <t>1000020262</t>
+  </si>
+  <si>
+    <t>3014009502</t>
+  </si>
+  <si>
+    <t>1000020263</t>
+  </si>
+  <si>
+    <t>3014009503</t>
+  </si>
+  <si>
+    <t>1000020264</t>
+  </si>
+  <si>
+    <t>3014009504</t>
+  </si>
+  <si>
+    <t>1000020265</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1515,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>75</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2">
@@ -1367,7 +1523,7 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>118</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1377,7 +1533,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D117"/>
+  <dimension ref="A1:D168"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3024,6 +3180,720 @@
         <v>17510192017</v>
       </c>
       <c r="D117" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>231</v>
+      </c>
+      <c r="B118" t="s">
+        <v>232</v>
+      </c>
+      <c r="C118" t="s">
+        <v>86</v>
+      </c>
+      <c r="D118" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>233</v>
+      </c>
+      <c r="B119" t="s">
+        <v>234</v>
+      </c>
+      <c r="C119" t="s">
+        <v>86</v>
+      </c>
+      <c r="D119" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>233</v>
+      </c>
+      <c r="B120" t="s">
+        <v>234</v>
+      </c>
+      <c r="C120" t="s">
+        <v>86</v>
+      </c>
+      <c r="D120" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>235</v>
+      </c>
+      <c r="B121" t="s">
+        <v>236</v>
+      </c>
+      <c r="C121" t="s">
+        <v>86</v>
+      </c>
+      <c r="D121" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>235</v>
+      </c>
+      <c r="B122" t="s">
+        <v>236</v>
+      </c>
+      <c r="C122" t="s">
+        <v>86</v>
+      </c>
+      <c r="D122" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>237</v>
+      </c>
+      <c r="B123" t="s">
+        <v>238</v>
+      </c>
+      <c r="C123" t="s">
+        <v>86</v>
+      </c>
+      <c r="D123" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>237</v>
+      </c>
+      <c r="B124" t="s">
+        <v>238</v>
+      </c>
+      <c r="C124" t="s">
+        <v>86</v>
+      </c>
+      <c r="D124" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>239</v>
+      </c>
+      <c r="B125" t="s">
+        <v>240</v>
+      </c>
+      <c r="C125" t="s">
+        <v>86</v>
+      </c>
+      <c r="D125" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>239</v>
+      </c>
+      <c r="B126" t="s">
+        <v>240</v>
+      </c>
+      <c r="C126" t="s">
+        <v>86</v>
+      </c>
+      <c r="D126" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>241</v>
+      </c>
+      <c r="B127" t="s">
+        <v>242</v>
+      </c>
+      <c r="C127" t="s">
+        <v>86</v>
+      </c>
+      <c r="D127" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>241</v>
+      </c>
+      <c r="B128" t="s">
+        <v>242</v>
+      </c>
+      <c r="C128" t="s">
+        <v>86</v>
+      </c>
+      <c r="D128" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>243</v>
+      </c>
+      <c r="B129" t="s">
+        <v>244</v>
+      </c>
+      <c r="C129" t="s">
+        <v>86</v>
+      </c>
+      <c r="D129" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>243</v>
+      </c>
+      <c r="B130" t="s">
+        <v>244</v>
+      </c>
+      <c r="C130" t="s">
+        <v>86</v>
+      </c>
+      <c r="D130" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>245</v>
+      </c>
+      <c r="B131" t="s">
+        <v>246</v>
+      </c>
+      <c r="C131" t="s">
+        <v>86</v>
+      </c>
+      <c r="D131" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>245</v>
+      </c>
+      <c r="B132" t="s">
+        <v>246</v>
+      </c>
+      <c r="C132" t="s">
+        <v>86</v>
+      </c>
+      <c r="D132" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>247</v>
+      </c>
+      <c r="B133" t="s">
+        <v>248</v>
+      </c>
+      <c r="C133" t="s">
+        <v>86</v>
+      </c>
+      <c r="D133" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>247</v>
+      </c>
+      <c r="B134" t="s">
+        <v>248</v>
+      </c>
+      <c r="C134" t="s">
+        <v>86</v>
+      </c>
+      <c r="D134" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>249</v>
+      </c>
+      <c r="B135" t="s">
+        <v>250</v>
+      </c>
+      <c r="C135" t="s">
+        <v>86</v>
+      </c>
+      <c r="D135" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>249</v>
+      </c>
+      <c r="B136" t="s">
+        <v>250</v>
+      </c>
+      <c r="C136" t="s">
+        <v>86</v>
+      </c>
+      <c r="D136" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>251</v>
+      </c>
+      <c r="B137" t="s">
+        <v>252</v>
+      </c>
+      <c r="C137" t="s">
+        <v>86</v>
+      </c>
+      <c r="D137" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>251</v>
+      </c>
+      <c r="B138" t="s">
+        <v>252</v>
+      </c>
+      <c r="C138" t="s">
+        <v>86</v>
+      </c>
+      <c r="D138" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>253</v>
+      </c>
+      <c r="B139" t="s">
+        <v>254</v>
+      </c>
+      <c r="C139" t="s">
+        <v>86</v>
+      </c>
+      <c r="D139" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>253</v>
+      </c>
+      <c r="B140" t="s">
+        <v>254</v>
+      </c>
+      <c r="C140" t="s">
+        <v>86</v>
+      </c>
+      <c r="D140" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>255</v>
+      </c>
+      <c r="B141" t="s">
+        <v>256</v>
+      </c>
+      <c r="C141" t="s">
+        <v>86</v>
+      </c>
+      <c r="D141" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>255</v>
+      </c>
+      <c r="B142" t="s">
+        <v>256</v>
+      </c>
+      <c r="C142" t="s">
+        <v>86</v>
+      </c>
+      <c r="D142" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>257</v>
+      </c>
+      <c r="B143" t="s">
+        <v>258</v>
+      </c>
+      <c r="C143" t="s">
+        <v>86</v>
+      </c>
+      <c r="D143" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>257</v>
+      </c>
+      <c r="B144" t="s">
+        <v>258</v>
+      </c>
+      <c r="C144" t="s">
+        <v>86</v>
+      </c>
+      <c r="D144" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>259</v>
+      </c>
+      <c r="B145" t="s">
+        <v>260</v>
+      </c>
+      <c r="C145" t="s">
+        <v>86</v>
+      </c>
+      <c r="D145" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>259</v>
+      </c>
+      <c r="B146" t="s">
+        <v>260</v>
+      </c>
+      <c r="C146" t="s">
+        <v>86</v>
+      </c>
+      <c r="D146" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>261</v>
+      </c>
+      <c r="B147" t="s">
+        <v>262</v>
+      </c>
+      <c r="C147" t="s">
+        <v>86</v>
+      </c>
+      <c r="D147" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>261</v>
+      </c>
+      <c r="B148" t="s">
+        <v>262</v>
+      </c>
+      <c r="C148" t="s">
+        <v>86</v>
+      </c>
+      <c r="D148" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>263</v>
+      </c>
+      <c r="B149" t="s">
+        <v>264</v>
+      </c>
+      <c r="C149" t="s">
+        <v>86</v>
+      </c>
+      <c r="D149" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>263</v>
+      </c>
+      <c r="B150" t="s">
+        <v>264</v>
+      </c>
+      <c r="C150" t="s">
+        <v>86</v>
+      </c>
+      <c r="D150" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>265</v>
+      </c>
+      <c r="B151" t="s">
+        <v>266</v>
+      </c>
+      <c r="C151" t="s">
+        <v>86</v>
+      </c>
+      <c r="D151" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>265</v>
+      </c>
+      <c r="B152" t="s">
+        <v>266</v>
+      </c>
+      <c r="C152" t="s">
+        <v>86</v>
+      </c>
+      <c r="D152" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>267</v>
+      </c>
+      <c r="B153" t="s">
+        <v>268</v>
+      </c>
+      <c r="C153" t="s">
+        <v>86</v>
+      </c>
+      <c r="D153" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>267</v>
+      </c>
+      <c r="B154" t="s">
+        <v>268</v>
+      </c>
+      <c r="C154" t="s">
+        <v>86</v>
+      </c>
+      <c r="D154" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>269</v>
+      </c>
+      <c r="B155" t="s">
+        <v>270</v>
+      </c>
+      <c r="C155" t="s">
+        <v>86</v>
+      </c>
+      <c r="D155" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>269</v>
+      </c>
+      <c r="B156" t="s">
+        <v>270</v>
+      </c>
+      <c r="C156" t="s">
+        <v>86</v>
+      </c>
+      <c r="D156" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>271</v>
+      </c>
+      <c r="B157" t="s">
+        <v>272</v>
+      </c>
+      <c r="C157" t="s">
+        <v>86</v>
+      </c>
+      <c r="D157" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>271</v>
+      </c>
+      <c r="B158" t="s">
+        <v>272</v>
+      </c>
+      <c r="C158" t="s">
+        <v>86</v>
+      </c>
+      <c r="D158" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>273</v>
+      </c>
+      <c r="B159" t="s">
+        <v>274</v>
+      </c>
+      <c r="C159" t="s">
+        <v>86</v>
+      </c>
+      <c r="D159" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>273</v>
+      </c>
+      <c r="B160" t="s">
+        <v>274</v>
+      </c>
+      <c r="C160" t="s">
+        <v>86</v>
+      </c>
+      <c r="D160" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>275</v>
+      </c>
+      <c r="B161" t="s">
+        <v>276</v>
+      </c>
+      <c r="C161" t="s">
+        <v>86</v>
+      </c>
+      <c r="D161" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>275</v>
+      </c>
+      <c r="B162" t="s">
+        <v>276</v>
+      </c>
+      <c r="C162" t="s">
+        <v>86</v>
+      </c>
+      <c r="D162" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>277</v>
+      </c>
+      <c r="B163" t="s">
+        <v>278</v>
+      </c>
+      <c r="C163" t="s">
+        <v>86</v>
+      </c>
+      <c r="D163" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>277</v>
+      </c>
+      <c r="B164" t="s">
+        <v>278</v>
+      </c>
+      <c r="C164" t="s">
+        <v>86</v>
+      </c>
+      <c r="D164" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>279</v>
+      </c>
+      <c r="B165" t="s">
+        <v>280</v>
+      </c>
+      <c r="C165" t="s">
+        <v>86</v>
+      </c>
+      <c r="D165" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>279</v>
+      </c>
+      <c r="B166" t="s">
+        <v>280</v>
+      </c>
+      <c r="C166" t="s">
+        <v>86</v>
+      </c>
+      <c r="D166" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>281</v>
+      </c>
+      <c r="B167" t="s">
+        <v>282</v>
+      </c>
+      <c r="C167" t="s">
+        <v>86</v>
+      </c>
+      <c r="D167" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>281</v>
+      </c>
+      <c r="B168" t="s">
+        <v>282</v>
+      </c>
+      <c r="C168" t="s">
+        <v>86</v>
+      </c>
+      <c r="D168" t="s">
         <v>105</v>
       </c>
     </row>

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -1515,7 +1515,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2">

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="289">
   <si>
     <t>Invoice No</t>
   </si>
@@ -866,6 +866,24 @@
   </si>
   <si>
     <t>1000020265</t>
+  </si>
+  <si>
+    <t>3013696567</t>
+  </si>
+  <si>
+    <t>1000004798</t>
+  </si>
+  <si>
+    <t>3013960724</t>
+  </si>
+  <si>
+    <t>1000020389</t>
+  </si>
+  <si>
+    <t>3013991964</t>
+  </si>
+  <si>
+    <t>1000020390</t>
   </si>
 </sst>
 </file>
@@ -1515,7 +1533,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
@@ -1523,7 +1541,7 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1533,7 +1551,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D168"/>
+  <dimension ref="A1:D171"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3894,6 +3912,48 @@
         <v>86</v>
       </c>
       <c r="D168" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>283</v>
+      </c>
+      <c r="B169" t="s">
+        <v>284</v>
+      </c>
+      <c r="C169">
+        <v>20510192017</v>
+      </c>
+      <c r="D169" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>285</v>
+      </c>
+      <c r="B170" t="s">
+        <v>286</v>
+      </c>
+      <c r="C170">
+        <v>20610192017</v>
+      </c>
+      <c r="D170" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>287</v>
+      </c>
+      <c r="B171" t="s">
+        <v>288</v>
+      </c>
+      <c r="C171">
+        <v>20710192017</v>
+      </c>
+      <c r="D171" t="s">
         <v>105</v>
       </c>
     </row>

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="291">
   <si>
     <t>Invoice No</t>
   </si>
@@ -884,6 +884,12 @@
   </si>
   <si>
     <t>1000020390</t>
+  </si>
+  <si>
+    <t>3013696923</t>
+  </si>
+  <si>
+    <t>1000004805</t>
   </si>
 </sst>
 </file>
@@ -1533,7 +1539,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
@@ -1541,7 +1547,7 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1551,7 +1557,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D171"/>
+  <dimension ref="A1:D172"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3954,6 +3960,20 @@
         <v>20710192017</v>
       </c>
       <c r="D171" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>289</v>
+      </c>
+      <c r="B172" t="s">
+        <v>290</v>
+      </c>
+      <c r="C172">
+        <v>20910192017</v>
+      </c>
+      <c r="D172" t="s">
         <v>105</v>
       </c>
     </row>

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -1533,7 +1533,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="349">
   <si>
     <t>Invoice No</t>
   </si>
@@ -890,6 +890,180 @@
   </si>
   <si>
     <t>1000004805</t>
+  </si>
+  <si>
+    <t>3014003281</t>
+  </si>
+  <si>
+    <t>1000020430</t>
+  </si>
+  <si>
+    <t>3014004616</t>
+  </si>
+  <si>
+    <t>1000020431</t>
+  </si>
+  <si>
+    <t>3014008789</t>
+  </si>
+  <si>
+    <t>1000020432</t>
+  </si>
+  <si>
+    <t>3014008800</t>
+  </si>
+  <si>
+    <t>1000020433</t>
+  </si>
+  <si>
+    <t>3014008804</t>
+  </si>
+  <si>
+    <t>1000020434</t>
+  </si>
+  <si>
+    <t>3014008796</t>
+  </si>
+  <si>
+    <t>1000020435</t>
+  </si>
+  <si>
+    <t>3014002975</t>
+  </si>
+  <si>
+    <t>1000020436</t>
+  </si>
+  <si>
+    <t>3014003386</t>
+  </si>
+  <si>
+    <t>1000020437</t>
+  </si>
+  <si>
+    <t>3014003494</t>
+  </si>
+  <si>
+    <t>1000020438</t>
+  </si>
+  <si>
+    <t>3014003603</t>
+  </si>
+  <si>
+    <t>1000020439</t>
+  </si>
+  <si>
+    <t>3014003718</t>
+  </si>
+  <si>
+    <t>1000020440</t>
+  </si>
+  <si>
+    <t>3014003831</t>
+  </si>
+  <si>
+    <t>1000020441</t>
+  </si>
+  <si>
+    <t>3014003940</t>
+  </si>
+  <si>
+    <t>1000020442</t>
+  </si>
+  <si>
+    <t>3014004049</t>
+  </si>
+  <si>
+    <t>1000020443</t>
+  </si>
+  <si>
+    <t>3014004176</t>
+  </si>
+  <si>
+    <t>1000020444</t>
+  </si>
+  <si>
+    <t>3014004283</t>
+  </si>
+  <si>
+    <t>1000020445</t>
+  </si>
+  <si>
+    <t>3014004392</t>
+  </si>
+  <si>
+    <t>1000020446</t>
+  </si>
+  <si>
+    <t>3014004504</t>
+  </si>
+  <si>
+    <t>1000020447</t>
+  </si>
+  <si>
+    <t>3014008792</t>
+  </si>
+  <si>
+    <t>1000020448</t>
+  </si>
+  <si>
+    <t>3014008793</t>
+  </si>
+  <si>
+    <t>1000020449</t>
+  </si>
+  <si>
+    <t>3014008795</t>
+  </si>
+  <si>
+    <t>1000020450</t>
+  </si>
+  <si>
+    <t>3014008797</t>
+  </si>
+  <si>
+    <t>1000020451</t>
+  </si>
+  <si>
+    <t>3014008798</t>
+  </si>
+  <si>
+    <t>1000020452</t>
+  </si>
+  <si>
+    <t>3014008799</t>
+  </si>
+  <si>
+    <t>1000020453</t>
+  </si>
+  <si>
+    <t>3014008801</t>
+  </si>
+  <si>
+    <t>1000020454</t>
+  </si>
+  <si>
+    <t>3014008802</t>
+  </si>
+  <si>
+    <t>1000020455</t>
+  </si>
+  <si>
+    <t>3014008803</t>
+  </si>
+  <si>
+    <t>1000020456</t>
+  </si>
+  <si>
+    <t>3014008806</t>
+  </si>
+  <si>
+    <t>1000020457</t>
+  </si>
+  <si>
+    <t>3014008805</t>
+  </si>
+  <si>
+    <t>1000020458</t>
   </si>
 </sst>
 </file>
@@ -1539,7 +1713,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>109</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2">
@@ -1547,7 +1721,7 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>173</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -1557,7 +1731,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D172"/>
+  <dimension ref="A1:D201"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3974,6 +4148,412 @@
         <v>20910192017</v>
       </c>
       <c r="D172" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>291</v>
+      </c>
+      <c r="B173" t="s">
+        <v>292</v>
+      </c>
+      <c r="C173">
+        <v>21210192017</v>
+      </c>
+      <c r="D173" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>293</v>
+      </c>
+      <c r="B174" t="s">
+        <v>294</v>
+      </c>
+      <c r="C174">
+        <v>21310192017</v>
+      </c>
+      <c r="D174" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>295</v>
+      </c>
+      <c r="B175" t="s">
+        <v>296</v>
+      </c>
+      <c r="C175">
+        <v>21410192017</v>
+      </c>
+      <c r="D175" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>297</v>
+      </c>
+      <c r="B176" t="s">
+        <v>298</v>
+      </c>
+      <c r="C176">
+        <v>21510192017</v>
+      </c>
+      <c r="D176" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>299</v>
+      </c>
+      <c r="B177" t="s">
+        <v>300</v>
+      </c>
+      <c r="C177">
+        <v>21610192017</v>
+      </c>
+      <c r="D177" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>301</v>
+      </c>
+      <c r="B178" t="s">
+        <v>302</v>
+      </c>
+      <c r="C178">
+        <v>21710192017</v>
+      </c>
+      <c r="D178" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>303</v>
+      </c>
+      <c r="B179" t="s">
+        <v>304</v>
+      </c>
+      <c r="C179">
+        <v>21810192017</v>
+      </c>
+      <c r="D179" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>305</v>
+      </c>
+      <c r="B180" t="s">
+        <v>306</v>
+      </c>
+      <c r="C180">
+        <v>21910192017</v>
+      </c>
+      <c r="D180" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>307</v>
+      </c>
+      <c r="B181" t="s">
+        <v>308</v>
+      </c>
+      <c r="C181">
+        <v>22010192017</v>
+      </c>
+      <c r="D181" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>309</v>
+      </c>
+      <c r="B182" t="s">
+        <v>310</v>
+      </c>
+      <c r="C182">
+        <v>22110192017</v>
+      </c>
+      <c r="D182" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>311</v>
+      </c>
+      <c r="B183" t="s">
+        <v>312</v>
+      </c>
+      <c r="C183">
+        <v>22210192017</v>
+      </c>
+      <c r="D183" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>313</v>
+      </c>
+      <c r="B184" t="s">
+        <v>314</v>
+      </c>
+      <c r="C184">
+        <v>22310192017</v>
+      </c>
+      <c r="D184" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>315</v>
+      </c>
+      <c r="B185" t="s">
+        <v>316</v>
+      </c>
+      <c r="C185">
+        <v>22410192017</v>
+      </c>
+      <c r="D185" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>317</v>
+      </c>
+      <c r="B186" t="s">
+        <v>318</v>
+      </c>
+      <c r="C186">
+        <v>22510192017</v>
+      </c>
+      <c r="D186" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>319</v>
+      </c>
+      <c r="B187" t="s">
+        <v>320</v>
+      </c>
+      <c r="C187">
+        <v>22610192017</v>
+      </c>
+      <c r="D187" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>321</v>
+      </c>
+      <c r="B188" t="s">
+        <v>322</v>
+      </c>
+      <c r="C188">
+        <v>22710192017</v>
+      </c>
+      <c r="D188" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>323</v>
+      </c>
+      <c r="B189" t="s">
+        <v>324</v>
+      </c>
+      <c r="C189">
+        <v>22810192017</v>
+      </c>
+      <c r="D189" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>325</v>
+      </c>
+      <c r="B190" t="s">
+        <v>326</v>
+      </c>
+      <c r="C190">
+        <v>22910192017</v>
+      </c>
+      <c r="D190" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>327</v>
+      </c>
+      <c r="B191" t="s">
+        <v>328</v>
+      </c>
+      <c r="C191">
+        <v>23010192017</v>
+      </c>
+      <c r="D191" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>329</v>
+      </c>
+      <c r="B192" t="s">
+        <v>330</v>
+      </c>
+      <c r="C192">
+        <v>23110192017</v>
+      </c>
+      <c r="D192" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>331</v>
+      </c>
+      <c r="B193" t="s">
+        <v>332</v>
+      </c>
+      <c r="C193">
+        <v>23210192017</v>
+      </c>
+      <c r="D193" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>333</v>
+      </c>
+      <c r="B194" t="s">
+        <v>334</v>
+      </c>
+      <c r="C194">
+        <v>23310192017</v>
+      </c>
+      <c r="D194" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>335</v>
+      </c>
+      <c r="B195" t="s">
+        <v>336</v>
+      </c>
+      <c r="C195">
+        <v>23410192017</v>
+      </c>
+      <c r="D195" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>337</v>
+      </c>
+      <c r="B196" t="s">
+        <v>338</v>
+      </c>
+      <c r="C196">
+        <v>23510192017</v>
+      </c>
+      <c r="D196" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>339</v>
+      </c>
+      <c r="B197" t="s">
+        <v>340</v>
+      </c>
+      <c r="C197">
+        <v>23610192017</v>
+      </c>
+      <c r="D197" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>341</v>
+      </c>
+      <c r="B198" t="s">
+        <v>342</v>
+      </c>
+      <c r="C198">
+        <v>23710192017</v>
+      </c>
+      <c r="D198" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>343</v>
+      </c>
+      <c r="B199" t="s">
+        <v>344</v>
+      </c>
+      <c r="C199">
+        <v>23810192017</v>
+      </c>
+      <c r="D199" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>345</v>
+      </c>
+      <c r="B200" t="s">
+        <v>346</v>
+      </c>
+      <c r="C200">
+        <v>23910192017</v>
+      </c>
+      <c r="D200" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>347</v>
+      </c>
+      <c r="B201" t="s">
+        <v>348</v>
+      </c>
+      <c r="C201">
+        <v>24010192017</v>
+      </c>
+      <c r="D201" t="s">
         <v>105</v>
       </c>
     </row>

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="377">
   <si>
     <t>Invoice No</t>
   </si>
@@ -1064,6 +1064,90 @@
   </si>
   <si>
     <t>1000020458</t>
+  </si>
+  <si>
+    <t>3013974296</t>
+  </si>
+  <si>
+    <t>1000020465</t>
+  </si>
+  <si>
+    <t>3013905689</t>
+  </si>
+  <si>
+    <t>1000020466</t>
+  </si>
+  <si>
+    <t>3013905719</t>
+  </si>
+  <si>
+    <t>1000020467</t>
+  </si>
+  <si>
+    <t>3013981066</t>
+  </si>
+  <si>
+    <t>1000020468</t>
+  </si>
+  <si>
+    <t>3013998148</t>
+  </si>
+  <si>
+    <t>1000020469</t>
+  </si>
+  <si>
+    <t>3013245519</t>
+  </si>
+  <si>
+    <t>1000020470</t>
+  </si>
+  <si>
+    <t>3013527955</t>
+  </si>
+  <si>
+    <t>1000020471</t>
+  </si>
+  <si>
+    <t>3013898056</t>
+  </si>
+  <si>
+    <t>1000020472</t>
+  </si>
+  <si>
+    <t>1000020473</t>
+  </si>
+  <si>
+    <t>3013909121</t>
+  </si>
+  <si>
+    <t>1000020474</t>
+  </si>
+  <si>
+    <t>1000020475</t>
+  </si>
+  <si>
+    <t>3013913751</t>
+  </si>
+  <si>
+    <t>1000020476</t>
+  </si>
+  <si>
+    <t>3013914085</t>
+  </si>
+  <si>
+    <t>1000020477</t>
+  </si>
+  <si>
+    <t>3013901427</t>
+  </si>
+  <si>
+    <t>1000020478</t>
+  </si>
+  <si>
+    <t>3013997547</t>
+  </si>
+  <si>
+    <t>1000020482</t>
   </si>
 </sst>
 </file>
@@ -1713,7 +1797,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2">
@@ -1721,7 +1805,7 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>202</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -1731,7 +1815,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D201"/>
+  <dimension ref="A1:D216"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4554,6 +4638,216 @@
         <v>24010192017</v>
       </c>
       <c r="D201" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>349</v>
+      </c>
+      <c r="B202" t="s">
+        <v>350</v>
+      </c>
+      <c r="C202">
+        <v>24110192017</v>
+      </c>
+      <c r="D202" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>351</v>
+      </c>
+      <c r="B203" t="s">
+        <v>352</v>
+      </c>
+      <c r="C203">
+        <v>24210192017</v>
+      </c>
+      <c r="D203" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>353</v>
+      </c>
+      <c r="B204" t="s">
+        <v>354</v>
+      </c>
+      <c r="C204">
+        <v>24310192017</v>
+      </c>
+      <c r="D204" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>355</v>
+      </c>
+      <c r="B205" t="s">
+        <v>356</v>
+      </c>
+      <c r="C205">
+        <v>24410192017</v>
+      </c>
+      <c r="D205" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>357</v>
+      </c>
+      <c r="B206" t="s">
+        <v>358</v>
+      </c>
+      <c r="C206">
+        <v>24510192017</v>
+      </c>
+      <c r="D206" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>359</v>
+      </c>
+      <c r="B207" t="s">
+        <v>360</v>
+      </c>
+      <c r="C207">
+        <v>24610192017</v>
+      </c>
+      <c r="D207" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>361</v>
+      </c>
+      <c r="B208" t="s">
+        <v>362</v>
+      </c>
+      <c r="C208">
+        <v>24710192017</v>
+      </c>
+      <c r="D208" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>363</v>
+      </c>
+      <c r="B209" t="s">
+        <v>364</v>
+      </c>
+      <c r="C209">
+        <v>24810192017</v>
+      </c>
+      <c r="D209" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>353</v>
+      </c>
+      <c r="B210" t="s">
+        <v>365</v>
+      </c>
+      <c r="C210">
+        <v>24910192017</v>
+      </c>
+      <c r="D210" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>366</v>
+      </c>
+      <c r="B211" t="s">
+        <v>367</v>
+      </c>
+      <c r="C211">
+        <v>25010192017</v>
+      </c>
+      <c r="D211" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>366</v>
+      </c>
+      <c r="B212" t="s">
+        <v>368</v>
+      </c>
+      <c r="C212">
+        <v>25110192017</v>
+      </c>
+      <c r="D212" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>369</v>
+      </c>
+      <c r="B213" t="s">
+        <v>370</v>
+      </c>
+      <c r="C213">
+        <v>25210192017</v>
+      </c>
+      <c r="D213" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>371</v>
+      </c>
+      <c r="B214" t="s">
+        <v>372</v>
+      </c>
+      <c r="C214">
+        <v>25310192017</v>
+      </c>
+      <c r="D214" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>373</v>
+      </c>
+      <c r="B215" t="s">
+        <v>374</v>
+      </c>
+      <c r="C215">
+        <v>25410192017</v>
+      </c>
+      <c r="D215" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>375</v>
+      </c>
+      <c r="B216" t="s">
+        <v>376</v>
+      </c>
+      <c r="C216">
+        <v>25510192017</v>
+      </c>
+      <c r="D216" t="s">
         <v>105</v>
       </c>
     </row>

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -1797,7 +1797,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2">

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -1797,7 +1797,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2">

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -1797,7 +1797,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2">

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="379">
   <si>
     <t>Invoice No</t>
   </si>
@@ -1148,6 +1148,12 @@
   </si>
   <si>
     <t>1000020482</t>
+  </si>
+  <si>
+    <t>coNum</t>
+  </si>
+  <si>
+    <t>1000020487</t>
   </si>
 </sst>
 </file>
@@ -1797,7 +1803,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2">
@@ -1805,7 +1811,7 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -1815,7 +1821,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D216"/>
+  <dimension ref="A1:D217"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4848,6 +4854,20 @@
         <v>25510192017</v>
       </c>
       <c r="D216" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>377</v>
+      </c>
+      <c r="B217" t="s">
+        <v>378</v>
+      </c>
+      <c r="C217">
+        <v>26510192017</v>
+      </c>
+      <c r="D217" t="s">
         <v>105</v>
       </c>
     </row>

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -1797,7 +1797,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2">

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -1797,7 +1797,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2">

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -1797,7 +1797,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2">

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -1797,7 +1797,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2">

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -1797,7 +1797,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2">

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="381">
   <si>
     <t>Invoice No</t>
   </si>
@@ -1148,6 +1148,18 @@
   </si>
   <si>
     <t>1000020482</t>
+  </si>
+  <si>
+    <t>3014011653</t>
+  </si>
+  <si>
+    <t>1000020509</t>
+  </si>
+  <si>
+    <t>3014011659</t>
+  </si>
+  <si>
+    <t>1000020510</t>
   </si>
 </sst>
 </file>
@@ -1797,7 +1809,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2">
@@ -1805,7 +1817,7 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -1815,7 +1827,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D216"/>
+  <dimension ref="A1:D218"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4848,6 +4860,34 @@
         <v>25510192017</v>
       </c>
       <c r="D216" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>377</v>
+      </c>
+      <c r="B217" t="s">
+        <v>378</v>
+      </c>
+      <c r="C217" t="s">
+        <v>86</v>
+      </c>
+      <c r="D217" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>379</v>
+      </c>
+      <c r="B218" t="s">
+        <v>380</v>
+      </c>
+      <c r="C218" t="s">
+        <v>86</v>
+      </c>
+      <c r="D218" t="s">
         <v>105</v>
       </c>
     </row>

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -1809,7 +1809,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2">

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -1809,7 +1809,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2">

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="383">
   <si>
     <t>Invoice No</t>
   </si>
@@ -1160,6 +1160,12 @@
   </si>
   <si>
     <t>1000020510</t>
+  </si>
+  <si>
+    <t>3014014961</t>
+  </si>
+  <si>
+    <t>1000020558</t>
   </si>
 </sst>
 </file>
@@ -1809,7 +1815,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2">
@@ -1817,7 +1823,7 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -1827,7 +1833,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D218"/>
+  <dimension ref="A1:D219"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4888,6 +4894,20 @@
         <v>86</v>
       </c>
       <c r="D218" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>381</v>
+      </c>
+      <c r="B219" t="s">
+        <v>382</v>
+      </c>
+      <c r="C219" t="s">
+        <v>86</v>
+      </c>
+      <c r="D219" t="s">
         <v>105</v>
       </c>
     </row>

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="383">
   <si>
     <t>Invoice No</t>
   </si>
@@ -1160,6 +1160,12 @@
   </si>
   <si>
     <t>1000020510</t>
+  </si>
+  <si>
+    <t>3014014959</t>
+  </si>
+  <si>
+    <t>1000020556</t>
   </si>
 </sst>
 </file>
@@ -1809,7 +1815,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2">
@@ -1817,7 +1823,7 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -1827,7 +1833,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D218"/>
+  <dimension ref="A1:D219"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4888,6 +4894,20 @@
         <v>86</v>
       </c>
       <c r="D218" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>381</v>
+      </c>
+      <c r="B219" t="s">
+        <v>382</v>
+      </c>
+      <c r="C219" t="s">
+        <v>86</v>
+      </c>
+      <c r="D219" t="s">
         <v>105</v>
       </c>
     </row>

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="385">
   <si>
     <t>Invoice No</t>
   </si>
@@ -1166,6 +1166,12 @@
   </si>
   <si>
     <t>1000020556</t>
+  </si>
+  <si>
+    <t>3014014979</t>
+  </si>
+  <si>
+    <t>1000020562</t>
   </si>
 </sst>
 </file>
@@ -1815,7 +1821,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2">
@@ -1823,7 +1829,7 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -1833,7 +1839,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D219"/>
+  <dimension ref="A1:D220"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4908,6 +4914,20 @@
         <v>86</v>
       </c>
       <c r="D219" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>383</v>
+      </c>
+      <c r="B220" t="s">
+        <v>384</v>
+      </c>
+      <c r="C220" t="s">
+        <v>86</v>
+      </c>
+      <c r="D220" t="s">
         <v>105</v>
       </c>
     </row>

--- a/Resources/1-Validation.xlsx
+++ b/Resources/1-Validation.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="387">
   <si>
     <t>Invoice No</t>
   </si>
@@ -1172,6 +1172,12 @@
   </si>
   <si>
     <t>1000020562</t>
+  </si>
+  <si>
+    <t>3014014982</t>
+  </si>
+  <si>
+    <t>1000020565</t>
   </si>
 </sst>
 </file>
@@ -1821,7 +1827,7 @@
         <v>49</v>
       </c>
       <c r="B1">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2">
@@ -1829,7 +1835,7 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -1839,7 +1845,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D220"/>
+  <dimension ref="A1:D221"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4928,6 +4934,20 @@
         <v>86</v>
       </c>
       <c r="D220" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>385</v>
+      </c>
+      <c r="B221" t="s">
+        <v>386</v>
+      </c>
+      <c r="C221" t="s">
+        <v>86</v>
+      </c>
+      <c r="D221" t="s">
         <v>105</v>
       </c>
     </row>
